--- a/data/temperature75.xlsx
+++ b/data/temperature75.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Git_Repositories\Semester_Thesis_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3148726-A7B7-497A-81F7-36657CEBE669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174B7E6F-7AF0-45C4-A201-C984F050B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{FD10B2A9-E45B-4928-8984-6B25599DFDFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FD10B2A9-E45B-4928-8984-6B25599DFDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t>Current_A</t>
   </si>
   <si>
-    <t>QC_W</t>
+    <t>Qremoved_W</t>
   </si>
   <si>
-    <t>Qh_W</t>
+    <t>Qwaste_W</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,10 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,10 +472,10 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
